--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -471,7 +471,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[m]"/>
+    <numFmt numFmtId="164" formatCode="[m]"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -657,7 +657,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +690,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -822,11 +821,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501341712"/>
-        <c:axId val="501339360"/>
+        <c:axId val="391676984"/>
+        <c:axId val="391680904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501341712"/>
+        <c:axId val="391676984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,12 +882,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501339360"/>
+        <c:crossAx val="391680904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501339360"/>
+        <c:axId val="391680904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501341712"/>
+        <c:crossAx val="391676984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5121,10 +5120,10 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -690,6 +690,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -821,11 +822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391676984"/>
-        <c:axId val="391680904"/>
+        <c:axId val="464445552"/>
+        <c:axId val="464447120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391676984"/>
+        <c:axId val="464445552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,12 +883,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391680904"/>
+        <c:crossAx val="464447120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391680904"/>
+        <c:axId val="464447120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391676984"/>
+        <c:crossAx val="464445552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5117,13 +5118,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,6 +6618,24 @@
         <v>0.98680555555620231</v>
       </c>
     </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <f>(Q17*100-S17)/Q14</f>
+        <v>60.704847486476815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <f>(Q18*100-S18)/Q15</f>
+        <v>97.356969055372858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f>(Q19*100-S19)/Q16</f>
+        <v>84.091045864187265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="151">
   <si>
     <t>Parameters</t>
   </si>
@@ -464,6 +464,24 @@
   </si>
   <si>
     <t>Kd</t>
+  </si>
+  <si>
+    <t>Vol removed</t>
+  </si>
+  <si>
+    <t>Expected starting activity</t>
+  </si>
+  <si>
+    <t>Bq</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Desorb solution</t>
+  </si>
+  <si>
+    <t>Total water</t>
   </si>
 </sst>
 </file>
@@ -822,11 +840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="464445552"/>
-        <c:axId val="464447120"/>
+        <c:axId val="408667688"/>
+        <c:axId val="408668472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="464445552"/>
+        <c:axId val="408667688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,12 +901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464447120"/>
+        <c:crossAx val="408668472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464447120"/>
+        <c:axId val="408668472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464445552"/>
+        <c:crossAx val="408667688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5120,11 +5138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6643,18 +6661,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6694,8 +6713,17 @@
       <c r="M1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1">
+        <v>90</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6739,8 +6767,18 @@
         <f>AVERAGE('Bottle Results'!E2:E4)</f>
         <v>2.9666666666666664E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2">
+        <f>B6*(100-P1)+D6*L6</f>
+        <v>177.56111568601179</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -6788,8 +6826,15 @@
         <f>AVERAGE('Bottle Results'!E5:E7)</f>
         <v>3.043333333333333E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3">
+        <f>100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -6837,8 +6882,15 @@
         <f>AVERAGE('Bottle Results'!E8:E10)</f>
         <v>2.9866666666666666E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4">
+        <f>P3*B7</f>
+        <v>222.22333791620693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -6887,7 +6939,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -6936,7 +6988,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>142</v>
       </c>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -816,7 +816,7 @@
                   <c:v>0.49280272850001111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3552375099985434</c:v>
+                  <c:v>0.4739107033915938</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.48737807490377466</c:v>
@@ -840,11 +840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408667688"/>
-        <c:axId val="408668472"/>
+        <c:axId val="385302152"/>
+        <c:axId val="385297448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408667688"/>
+        <c:axId val="385302152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,12 +901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408668472"/>
+        <c:crossAx val="385297448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408668472"/>
+        <c:axId val="385297448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408667688"/>
+        <c:crossAx val="385302152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5142,7 +5142,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6664,7 +6664,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6783,32 +6783,32 @@
         <v>138</v>
       </c>
       <c r="B3">
-        <f>AVERAGE('Bottle Results'!Q5:Q7)</f>
-        <v>1.3552375099985434</v>
+        <f>AVERAGE('Bottle Results'!Q5,'Bottle Results'!Q7)</f>
+        <v>0.4739107033915938</v>
       </c>
       <c r="C3">
-        <f>_xlfn.STDEV.S('Bottle Results'!Q5:Q7)</f>
-        <v>1.526560033704331</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!Q5,'Bottle Results'!Q7)</f>
+        <v>1.8693120197463428E-2</v>
       </c>
       <c r="D3">
-        <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>3305.5968272979794</v>
+        <f>AVERAGE('Bottle Results'!U5,'Bottle Results'!U7)</f>
+        <v>6203.9965487825075</v>
       </c>
       <c r="E3">
-        <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>5020.1812958564369</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!U5,'Bottle Results'!U7)</f>
+        <v>10.715107282799851</v>
       </c>
       <c r="F3">
-        <f>AVERAGE('Bottle Results'!S5:S7)</f>
-        <v>235.06007175857499</v>
+        <f>AVERAGE('Bottle Results'!S5,'Bottle Results'!S7)</f>
+        <v>235.06007175857502</v>
       </c>
       <c r="G3">
-        <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>0.42345056739773418</v>
+        <f>AVERAGE('Bottle Results'!W5,'Bottle Results'!W7)</f>
+        <v>0.79838740801613595</v>
       </c>
       <c r="H3">
-        <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>0.64943400309697286</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!W5,'Bottle Results'!W7)</f>
+        <v>7.9524863825714311E-3</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -840,11 +840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385302152"/>
-        <c:axId val="385297448"/>
+        <c:axId val="474001104"/>
+        <c:axId val="473996792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385302152"/>
+        <c:axId val="474001104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,12 +901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385297448"/>
+        <c:crossAx val="473996792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385297448"/>
+        <c:axId val="473996792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385302152"/>
+        <c:crossAx val="474001104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1572,16 +1572,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4570,7 +4570,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,10 +5139,10 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6664,7 +6664,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -840,11 +840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474001104"/>
-        <c:axId val="473996792"/>
+        <c:axId val="492791032"/>
+        <c:axId val="492785544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474001104"/>
+        <c:axId val="492791032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,12 +901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473996792"/>
+        <c:crossAx val="492785544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473996792"/>
+        <c:axId val="492785544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474001104"/>
+        <c:crossAx val="492791032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4569,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,7 +6663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -840,11 +840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492791032"/>
-        <c:axId val="492785544"/>
+        <c:axId val="212535048"/>
+        <c:axId val="212535832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492791032"/>
+        <c:axId val="212535048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,12 +901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492785544"/>
+        <c:crossAx val="212535832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492785544"/>
+        <c:axId val="212535832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492791032"/>
+        <c:crossAx val="212535048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1874,8 +1874,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,20 +1976,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.75" style="2" customWidth="1"/>
     <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -3816,8 +3816,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,19 +4569,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5147,30 +5147,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -6663,14 +6663,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6751,6 +6751,10 @@
         <f>AVERAGE('Bottle Results'!W2:W4)</f>
         <v>0.79035030287655239</v>
       </c>
+      <c r="H2">
+        <f>_xlfn.STDEV.S('Bottle Results'!W2:W4)</f>
+        <v>3.0956501771457158E-3</v>
+      </c>
       <c r="I2">
         <f>AVERAGE('Bottle Results'!D2:D4)</f>
         <v>7.0533333333333337</v>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -840,11 +840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212535048"/>
-        <c:axId val="212535832"/>
+        <c:axId val="131207448"/>
+        <c:axId val="131207056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212535048"/>
+        <c:axId val="131207448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,12 +901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212535832"/>
+        <c:crossAx val="131207056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212535832"/>
+        <c:axId val="131207056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212535048"/>
+        <c:crossAx val="131207448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1869,13 +1869,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>675.45997631774435</v>
-      </c>
-      <c r="C6">
-        <v>0.13742948708443162</v>
+        <v>1407</v>
+      </c>
+      <c r="C6" s="23">
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1976,20 +1976,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
     <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -3816,8 +3816,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4575,13 +4575,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5139,38 +5139,38 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -5306,19 +5306,19 @@
       </c>
       <c r="S2">
         <f>B2*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T2">
         <f>SQRT((C2/B2)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S2</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U19" si="0">(S2-Q2*G2)/E2</f>
-        <v>6258.2234797017009</v>
+        <v>14858.761595966056</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W19" si="1">(S2-Q2*G2)/S2</f>
-        <v>0.78806840146560386</v>
+        <v>0.89825777361263326</v>
       </c>
       <c r="X2" s="24">
         <v>42504.5625</v>
@@ -5384,19 +5384,19 @@
       </c>
       <c r="S3">
         <f>B3*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T3">
         <f>SQRT((C3/B3)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S3</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>6224.4258153695973</v>
+        <v>14767.242199310032</v>
       </c>
       <c r="W3">
         <f t="shared" si="1"/>
-        <v>0.7891084517685526</v>
+        <v>0.89875707166025165</v>
       </c>
       <c r="X3" s="24">
         <v>42504.569444444445</v>
@@ -5462,19 +5462,19 @@
       </c>
       <c r="S4">
         <f>B4*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T4">
         <f>SQRT((C4/B4)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S4</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>6304.327446910047</v>
+        <v>14904.865563174402</v>
       </c>
       <c r="W4">
         <f t="shared" si="1"/>
-        <v>0.79387405539550082</v>
+        <v>0.90104490002769877</v>
       </c>
       <c r="X4" s="24">
         <v>42504.572916666664</v>
@@ -5540,19 +5540,19 @@
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T5">
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S5</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>6196.4198237616984</v>
+        <v>14543.17156938219</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>0.80401066506454588</v>
+        <v>0.9059111929395649</v>
       </c>
       <c r="X5" s="24">
         <v>42504.579861111109</v>
@@ -5618,19 +5618,19 @@
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T6">
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S6</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>-2491.2026156710772</v>
+        <v>5774.2495999596022</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>-0.32642311383906952</v>
+        <v>0.36322265454083397</v>
       </c>
       <c r="X6" s="24">
         <v>42504.584722222222</v>
@@ -5696,19 +5696,19 @@
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T7">
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S7</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>6211.5732738033166</v>
+        <v>14697.437548517481</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>0.79276415096772601</v>
+        <v>0.90051206703658315</v>
       </c>
       <c r="X7" s="24">
         <v>42504.588194444441</v>
@@ -5774,19 +5774,19 @@
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T8">
         <f>SQRT((C8/B8)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S8</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>6228.3255314935386</v>
+        <v>14602.533697329885</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>0.8055008863941453</v>
+        <v>0.90662660506749615</v>
       </c>
       <c r="X8" s="24">
         <v>42504.59375</v>
@@ -5852,19 +5852,19 @@
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T9">
         <f>SQRT((C9/B9)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S9</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>6269.4980908943089</v>
+        <v>14958.096324390041</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>0.78148659059320646</v>
+        <v>0.8950980367142698</v>
       </c>
       <c r="X9" s="24">
         <v>42504.6</v>
@@ -5930,19 +5930,19 @@
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T10">
         <f>SQRT((C10/B10)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S10</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>6218.3746683607296</v>
+        <v>14732.619760047182</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>0.79098675156940212</v>
+        <v>0.89965878902983187</v>
       </c>
       <c r="X10" s="24">
         <v>42504.606249999997</v>
@@ -6008,19 +6008,19 @@
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T11">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S11</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>5815.4131955268904</v>
+        <v>14563.726880799226</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>0.71993734505298457</v>
+        <v>0.86555002538877346</v>
       </c>
       <c r="X11" s="24">
         <v>42504.611111111109</v>
@@ -6086,19 +6086,19 @@
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T12">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S12</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>6120.602324941864</v>
+        <v>14440.0771040734</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>0.79677688236044986</v>
+        <v>0.90243846323523191</v>
       </c>
       <c r="X12" s="24">
         <v>42504.615972222222</v>
@@ -6164,19 +6164,19 @@
       </c>
       <c r="S13">
         <f>B13*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T13">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S13</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>6334.80290528359</v>
+        <v>14993.848083563349</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>0.79232174151050117</v>
+        <v>0.90029967906110353</v>
       </c>
       <c r="X13" s="24">
         <v>42504.619444444441</v>
@@ -6242,19 +6242,19 @@
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T14">
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S14</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>5755.6347403330547</v>
+        <v>14473.988447231168</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>0.7149854637598364</v>
+        <v>0.86317277050533481</v>
       </c>
       <c r="X14" s="24">
         <v>42504.622916666667</v>
@@ -6320,19 +6320,19 @@
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T15">
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S15</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>5917.1094541511038</v>
+        <v>14402.973728865269</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>0.75518263181189293</v>
+        <v>0.88247026743531531</v>
       </c>
       <c r="X15" s="24">
         <v>42504.666666666664</v>
@@ -6398,19 +6398,19 @@
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T16">
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S16</f>
-        <v>1.3517662494665541</v>
+        <v>21.758730937258267</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>5734.9323898158063</v>
+        <v>14423.530623311539</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>0.71485351707961109</v>
+        <v>0.86310942672317414</v>
       </c>
       <c r="X16" s="24">
         <v>42504.669444444444</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="S17">
         <f>U14*E14</f>
-        <v>168.06453441772518</v>
+        <v>422.6404626591501</v>
       </c>
       <c r="T17" t="e">
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S17</f>
@@ -6477,11 +6477,11 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>-1392.7924234763191</v>
+        <v>7325.5612834217945</v>
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
-        <v>-0.24198763234856077</v>
+        <v>0.5061190500551459</v>
       </c>
       <c r="X17" s="24">
         <v>42515.473611111112</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="S18">
         <f>U15*E15</f>
-        <v>177.5132836245331</v>
+        <v>432.08921186595802</v>
       </c>
       <c r="T18" t="e">
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S18</f>
@@ -6548,11 +6548,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>-1867.5269572006728</v>
+        <v>6618.3373175134911</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>-0.31561473920184513</v>
+        <v>0.45951186484840684</v>
       </c>
       <c r="X18" s="24">
         <v>42515.479166666664</v>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="S19">
         <f>U16*E16</f>
-        <v>168.03351902160313</v>
+        <v>422.60944726302807</v>
       </c>
       <c r="T19" t="e">
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S19</f>
@@ -6619,11 +6619,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>-1923.6631127382493</v>
+        <v>6764.9351207574828</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>-0.33542908302708574</v>
+        <v>0.46902074793143139</v>
       </c>
       <c r="X19" s="24">
         <v>42515.486111111109</v>
@@ -6639,19 +6639,19 @@
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q23">
         <f>(Q17*100-S17)/Q14</f>
-        <v>60.704847486476815</v>
+        <v>-319.28453441254686</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q24">
         <f>(Q18*100-S18)/Q15</f>
-        <v>97.356969055372858</v>
+        <v>-345.02380751976665</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q25">
         <f>(Q19*100-S19)/Q16</f>
-        <v>84.091045864187265</v>
+        <v>-295.7225024178515</v>
       </c>
     </row>
   </sheetData>
@@ -6664,13 +6664,13 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6737,23 +6737,23 @@
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!U2:U4)</f>
-        <v>6262.3255806604475</v>
+        <v>14843.623119483498</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
-        <v>40.108454282273996</v>
+        <v>70.049465900861307</v>
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!S2:S4)</f>
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="G2">
         <f>AVERAGE('Bottle Results'!W2:W4)</f>
-        <v>0.79035030287655239</v>
+        <v>0.89935324843352793</v>
       </c>
       <c r="H2">
         <f>_xlfn.STDEV.S('Bottle Results'!W2:W4)</f>
-        <v>3.0956501771457158E-3</v>
+        <v>1.486132050705635E-3</v>
       </c>
       <c r="I2">
         <f>AVERAGE('Bottle Results'!D2:D4)</f>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="P2">
         <f>B6*(100-P1)+D6*L6</f>
-        <v>177.56111568601179</v>
+        <v>432.17380846790718</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
@@ -6796,23 +6796,23 @@
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5,'Bottle Results'!U7)</f>
-        <v>6203.9965487825075</v>
+        <v>14620.304558949836</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5,'Bottle Results'!U7)</f>
-        <v>10.715107282799851</v>
+        <v>109.08251995294656</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!S5,'Bottle Results'!S7)</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!W5,'Bottle Results'!W7)</f>
-        <v>0.79838740801613595</v>
+        <v>0.90321162998807403</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5,'Bottle Results'!W7)</f>
-        <v>7.9524863825714311E-3</v>
+        <v>3.8177585384783367E-3</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -6852,23 +6852,23 @@
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>6238.7327635828597</v>
+        <v>14764.416593922369</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>27.104131469343496</v>
+        <v>179.90129077870571</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>0.7926580761855847</v>
+        <v>0.90046114360386598</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>1.20940727293679E-2</v>
+        <v>5.8060142710475741E-3</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -6908,23 +6908,23 @@
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>6090.2728085841154</v>
+        <v>14665.88402281199</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>261.01978339229078</v>
+        <v>290.6761697825894</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0.76967865630797849</v>
+        <v>0.88942938922836967</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>4.3134795745695398E-2</v>
+        <v>2.0707766960098222E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -6957,23 +6957,23 @@
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>5802.5588614333219</v>
+        <v>14433.497599802658</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>99.742295683582341</v>
+        <v>36.541456202892242</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="G6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.7283405375504467</v>
+        <v>0.86958415488794139</v>
       </c>
       <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>2.3246029139121261E-2</v>
+        <v>1.1159745765310907E-2</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -7006,23 +7006,23 @@
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
-        <v>-1727.9941644717471</v>
+        <v>6902.9445738975892</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
-        <v>291.64699958067428</v>
+        <v>373.26450588797047</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>
-        <v>171.20377902128712</v>
+        <v>425.77970726271207</v>
       </c>
       <c r="G7">
         <f>AVERAGE('Bottle Results'!W17:W19)</f>
-        <v>-0.29767715152583057</v>
+        <v>0.47821722094499469</v>
       </c>
       <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
-        <v>4.9235596522768259E-2</v>
+        <v>2.4626992612593157E-2</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19)</f>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Scintillation Counter Results" sheetId="3" r:id="rId3"/>
     <sheet name="Count-&gt;Actual Activity" sheetId="2" r:id="rId4"/>
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
-    <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
+    <sheet name="Rd Calculations" sheetId="9" r:id="rId6"/>
+    <sheet name="Averaged Results" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="165">
   <si>
     <t>Parameters</t>
   </si>
@@ -482,6 +483,48 @@
   </si>
   <si>
     <t>Total water</t>
+  </si>
+  <si>
+    <t>Rd</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Vol Left on Solid</t>
+  </si>
+  <si>
+    <t>Ra Free (Desorb)</t>
+  </si>
+  <si>
+    <t>Ra Free Adsorb</t>
+  </si>
+  <si>
+    <t>Exp. Vol (Desorb)</t>
+  </si>
+  <si>
+    <t>Ra sorbed (Bq/g)</t>
+  </si>
+  <si>
+    <t>Ra sorbed (Desorption expt)</t>
+  </si>
+  <si>
+    <t>Rd by Sajih</t>
+  </si>
+  <si>
+    <t>Kd adsorb</t>
+  </si>
+  <si>
+    <t>Kd desorb</t>
   </si>
 </sst>
 </file>
@@ -840,11 +883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131207448"/>
-        <c:axId val="131207056"/>
+        <c:axId val="195127784"/>
+        <c:axId val="195127000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131207448"/>
+        <c:axId val="195127784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,12 +944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131207056"/>
+        <c:crossAx val="195127000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131207056"/>
+        <c:axId val="195127000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +1006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131207448"/>
+        <c:crossAx val="195127784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5136,13 +5179,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5171,9 +5214,10 @@
     <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5252,8 +5296,11 @@
       <c r="Z1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -5331,7 +5378,7 @@
         <v>0.12222222222044365</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -5409,7 +5456,7 @@
         <v>0.12083333333430346</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -5487,7 +5534,7 @@
         <v>0.12222222222771961</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -5565,7 +5612,7 @@
         <v>0.25833333333139308</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -5643,7 +5690,7 @@
         <v>0.25902777777810115</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -5721,7 +5768,7 @@
         <v>0.26250000000436557</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -5799,7 +5846,7 @@
         <v>1.0027777777795563</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -5877,7 +5924,7 @@
         <v>1.0006944444467081</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -5955,7 +6002,7 @@
         <v>0.99791666666715173</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -6033,7 +6080,7 @@
         <v>10.80000000000291</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -6111,7 +6158,7 @@
         <v>10.796527777776646</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -6189,7 +6236,7 @@
         <v>10.794444444451074</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -6267,7 +6314,7 @@
         <v>10.813194444446708</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -6345,7 +6392,7 @@
         <v>10.770833333335759</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -6636,24 +6683,6 @@
         <v>0.98680555555620231</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q23">
-        <f>(Q17*100-S17)/Q14</f>
-        <v>-319.28453441254686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q24">
-        <f>(Q18*100-S18)/Q15</f>
-        <v>-345.02380751976665</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q25">
-        <f>(Q19*100-S19)/Q16</f>
-        <v>-295.7225024178515</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6661,10 +6690,197 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2">
+        <f>'Bottle Results'!U14</f>
+        <v>14473.988447231168</v>
+      </c>
+      <c r="C2">
+        <f>'Bottle Results'!E14</f>
+        <v>2.92E-2</v>
+      </c>
+      <c r="D2">
+        <f>'Bottle Results'!Q14</f>
+        <v>0.66995537340849842</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>'Bottle Results'!Q17</f>
+        <v>2.0873407318323371</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f>'Bottle Results'!U17</f>
+        <v>7325.5612834217945</v>
+      </c>
+      <c r="I2">
+        <f>(B2*C2+D2*E2-D2*G2)/F2*C2</f>
+        <v>5.0688699870489149</v>
+      </c>
+      <c r="J2">
+        <f>B2/D2</f>
+        <v>21604.406833238132</v>
+      </c>
+      <c r="K2">
+        <f>H2/F2</f>
+        <v>3509.5186769010029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3">
+        <f>'Bottle Results'!U15</f>
+        <v>14402.973728865269</v>
+      </c>
+      <c r="C3">
+        <f>'Bottle Results'!E15</f>
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <f>'Bottle Results'!Q15</f>
+        <v>0.57546788134041926</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f>'Bottle Results'!Q18</f>
+        <v>2.3353909234055328</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <f>'Bottle Results'!U18</f>
+        <v>6618.3373175134911</v>
+      </c>
+      <c r="I3">
+        <f>(B3*C3+D3*E3-D3*G3)/F3*C3</f>
+        <v>4.8852262642704849</v>
+      </c>
+      <c r="J3">
+        <f>B3/D3</f>
+        <v>25028.284281160704</v>
+      </c>
+      <c r="K3">
+        <f>H3/F3</f>
+        <v>2833.9312494468572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4">
+        <f>'Bottle Results'!U16</f>
+        <v>14423.530623311539</v>
+      </c>
+      <c r="C4">
+        <f>'Bottle Results'!E16</f>
+        <v>2.93E-2</v>
+      </c>
+      <c r="D4">
+        <f>'Bottle Results'!Q16</f>
+        <v>0.67026552736971901</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f>'Bottle Results'!Q19</f>
+        <v>2.2439684822483383</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <f>'Bottle Results'!U19</f>
+        <v>6764.9351207574828</v>
+      </c>
+      <c r="I4">
+        <f>(B4*C4+D4*E4-D4*G4)/F4*C4</f>
+        <v>4.7304437175058434</v>
+      </c>
+      <c r="J4">
+        <f>B4/D4</f>
+        <v>21519.1294111647</v>
+      </c>
+      <c r="K4">
+        <f>H4/F4</f>
+        <v>3014.7193128039721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaMont_pH7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Rd Calculations" sheetId="9" r:id="rId6"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -437,30 +437,9 @@
     <t>Sample end</t>
   </si>
   <si>
-    <t>Experiment Length</t>
-  </si>
-  <si>
     <t>Experiment Length (min)</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>Desorb</t>
-  </si>
-  <si>
     <t>Mass (g)</t>
   </si>
   <si>
@@ -525,12 +504,33 @@
   </si>
   <si>
     <t>Kd desorb</t>
+  </si>
+  <si>
+    <t>RaMontpH7_T1</t>
+  </si>
+  <si>
+    <t>RaMontpH7_T2</t>
+  </si>
+  <si>
+    <t>RaMontpH7_T3</t>
+  </si>
+  <si>
+    <t>RaMontpH7_T4</t>
+  </si>
+  <si>
+    <t>RaMontpH7_T5</t>
+  </si>
+  <si>
+    <t>RaMontpH7_Desorb</t>
+  </si>
+  <si>
+    <t>Experiment Length (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[m]"/>
   </numFmts>
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -751,7 +751,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -874,6 +873,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C78-47A0-BD2E-557AC49EF2AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1628,7 +1632,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1908,10 +1918,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2012,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -4611,7 +4621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5180,7 +5190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,10 +5306,10 @@
         <v>134</v>
       </c>
       <c r="Z1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -6691,7 +6701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6710,42 +6720,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>157</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <f>'Bottle Results'!U14</f>
@@ -6788,7 +6798,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <f>'Bottle Results'!U15</f>
@@ -6831,7 +6841,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <f>'Bottle Results'!U16</f>
@@ -6878,15 +6888,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6923,27 +6934,27 @@
         <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="P1">
         <v>90</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
@@ -6990,19 +7001,19 @@
         <v>2.9666666666666664E-2</v>
       </c>
       <c r="O2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P2">
         <f>B6*(100-P1)+D6*L6</f>
         <v>148.84619344013095</v>
       </c>
       <c r="Q2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!Q5,'Bottle Results'!Q7)</f>
@@ -7049,7 +7060,7 @@
         <v>3.043333333333333E-2</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="P3">
         <f>100</f>
@@ -7058,7 +7069,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
@@ -7105,7 +7116,7 @@
         <v>2.9866666666666666E-2</v>
       </c>
       <c r="O4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P4">
         <f>P3*B7</f>
@@ -7114,7 +7125,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
@@ -7163,7 +7174,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
@@ -7212,7 +7223,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <f>AVERAGE('Bottle Results'!Q17:Q19)</f>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="164">
   <si>
     <t>Parameters</t>
   </si>
@@ -522,9 +522,6 @@
   </si>
   <si>
     <t>RaMontpH7_Desorb</t>
-  </si>
-  <si>
-    <t>Experiment Length (s)</t>
   </si>
 </sst>
 </file>
@@ -5197,7 +5194,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,14 +6888,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6934,7 +6931,7 @@
         <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="L1" t="s">
         <v>136</v>

--- a/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH7/RaMont_pH7_Kinetics_NoScript.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaMont_pH7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mache\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaMont_pH7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[m]"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +587,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -664,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -716,6 +723,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5190,11 +5200,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6888,381 +6898,384 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.140625" style="27"/>
+    <col min="11" max="11" width="20.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="27"/>
+    <col min="15" max="15" width="23.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="27">
         <v>90</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="27" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="27">
         <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
         <v>0.49280272850001111</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!Q2:Q4)</f>
         <v>7.2766375277932257E-3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="27">
         <f>AVERAGE('Bottle Results'!U2:U4)</f>
         <v>5294.5368624163357</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
         <v>37.09574631107894</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="27">
         <f>AVERAGE('Bottle Results'!S2:S4)</f>
         <v>206.34929577464791</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="27">
         <f>AVERAGE('Bottle Results'!W2:W4)</f>
         <v>0.76118031968560906</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!W2:W4)</f>
         <v>3.5263689660177118E-3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="27">
         <f>AVERAGE('Bottle Results'!D2:D4)</f>
         <v>7.0533333333333337</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!D2:D4)</f>
         <v>2.5166114784235766E-2</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="28">
         <f>AVERAGE('Bottle Results'!Z2:Z4)</f>
         <v>0.12175925926082225</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="29">
         <f>AVERAGE('Bottle Results'!E2:E4)</f>
         <v>2.9666666666666664E-2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="27">
         <f>B6*(100-P1)+D6*L6</f>
         <v>148.84619344013095</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="27" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="27">
         <f>AVERAGE('Bottle Results'!Q5,'Bottle Results'!Q7)</f>
         <v>0.4739107033915938</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!Q5,'Bottle Results'!Q7)</f>
         <v>1.8693120197463428E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="27">
         <f>AVERAGE('Bottle Results'!U5,'Bottle Results'!U7)</f>
         <v>5254.8151569641523</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!U5,'Bottle Results'!U7)</f>
         <v>0.37865467969396022</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="27">
         <f>AVERAGE('Bottle Results'!S5,'Bottle Results'!S7)</f>
         <v>206.34929577464791</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="27">
         <f>AVERAGE('Bottle Results'!W5,'Bottle Results'!W7)</f>
         <v>0.77033568173203404</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!W5,'Bottle Results'!W7)</f>
         <v>9.0589697082746543E-3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="27">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
         <v>6.9899999999999993</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!D5:D7)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="28">
         <f>AVERAGE('Bottle Results'!Z5:Z7)</f>
         <v>0.25995370370461995</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="29">
         <f>AVERAGE('Bottle Results'!E5:E7)</f>
         <v>3.043333333333333E-2</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="27">
         <f>100</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="27">
         <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
         <v>0.48737807490377466</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!Q8:Q10)</f>
         <v>2.8428336036186521E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="27">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
         <v>5277.2160944556308</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
         <v>16.75890915533158</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="27">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
         <v>206.34929577464791</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="27">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
         <v>0.76380918913528273</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
         <v>1.3776803031706442E-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="27">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
         <v>7.0233333333333334</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!D8:D10)</f>
         <v>2.3094010767585053E-2</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="28">
         <f>AVERAGE('Bottle Results'!Z8:Z10)</f>
         <v>1.0004629629644721</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="29">
         <f>AVERAGE('Bottle Results'!E8:E10)</f>
         <v>2.9866666666666666E-2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="27">
         <f>P3*B7</f>
         <v>222.22333791620693</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="27">
         <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
         <v>0.54139351575777994</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
         <v>0.10139268183274636</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="27">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
         <v>5123.1253873893811</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
         <v>269.65011857204559</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="27">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
         <v>206.34929577464791</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="27">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
         <v>0.7376324868348324</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
         <v>4.9136432209333385E-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="27">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
         <v>6.996666666666667</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!D11:D13)</f>
         <v>2.0816659994660883E-2</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="28">
         <f>AVERAGE('Bottle Results'!Z11:Z13)</f>
         <v>10.796990740743544</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="29">
         <f>AVERAGE('Bottle Results'!E11:E13)</f>
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="27">
         <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
         <v>0.6385629273728789</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!Q14:Q16)</f>
         <v>5.4642132775437717E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="27">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
         <v>4829.1716666577004</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
         <v>113.70432787624559</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="27">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
         <v>206.34929577464791</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="27">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
         <v>0.69054271545939871</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
         <v>2.6480406715374452E-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="27">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
         <v>6.9900000000000011</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!D14:D16)</f>
         <v>3.6055512754639987E-2</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="28">
         <f>AVERAGE('Bottle Results'!Z14:Z16)</f>
         <v>10.784953703706075</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="29">
         <f>AVERAGE('Bottle Results'!E14:E16)</f>
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="27">
         <f>AVERAGE('Bottle Results'!Q17:Q19)</f>
         <v>2.2222333791620694</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!Q17:Q19)</f>
         <v>0.12544534831751561</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="27">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
         <v>-2701.3813592473684</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
         <v>284.51080832697806</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="27">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>
         <v>142.49300303736004</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="27">
         <f>AVERAGE('Bottle Results'!W17:W19)</f>
         <v>-0.55931822375175166</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
         <v>5.7056743851220865E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="27">
         <f>AVERAGE('Bottle Results'!D17:D19)</f>
         <v>7</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="27">
         <f>_xlfn.STDEV.S('Bottle Results'!D17:D19)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="28">
         <f>AVERAGE('Bottle Results'!Z17:Z19)</f>
         <v>0.99027777777761605</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="29">
         <f>AVERAGE('Bottle Results'!E17:E19)</f>
         <v>2.9499999999999998E-2</v>
       </c>
